--- a/data/EXAMPLE/devices.xlsx
+++ b/data/EXAMPLE/devices.xlsx
@@ -9,8 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="credentials" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="firewalls" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="scrt-credentials" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="scrt-firewalls" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="rdm-credentials" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t xml:space="preserve">folder</t>
   </si>
@@ -42,6 +43,9 @@
     <t xml:space="preserve">username</t>
   </si>
   <si>
+    <t xml:space="preserve">rdm credential</t>
+  </si>
+  <si>
     <t xml:space="preserve">credential group</t>
   </si>
   <si>
@@ -66,6 +70,9 @@
     <t xml:space="preserve">192.168.1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">tmp/dir1/vault2</t>
+  </si>
+  <si>
     <t xml:space="preserve">cred1</t>
   </si>
   <si>
@@ -102,6 +109,9 @@
     <t xml:space="preserve">192.168.1.4</t>
   </si>
   <si>
+    <t xml:space="preserve">tmp/dir1/vault1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Session:tmp/customer1/f5/device3</t>
   </si>
   <si>
@@ -136,6 +146,21 @@
   </si>
   <si>
     <t xml:space="preserve">jano318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">credential name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp/dir1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vault1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user@$NAME$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vault2</t>
   </si>
 </sst>
 </file>
@@ -146,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,13 +200,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +212,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -248,15 +274,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,7 +318,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -348,10 +374,10 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.82"/>
@@ -359,13 +385,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.63"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,147 +413,158 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AMH1" s="0"/>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="H3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
+      <c r="A6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>22</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
+      <c r="A7" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -549,34 +586,34 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="G3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -598,36 +635,36 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="G3 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11.59"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>22</v>
@@ -635,16 +672,77 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>31800</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="G3 B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
